--- a/tetris_PocList.xlsx
+++ b/tetris_PocList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_Tetris\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\tetris\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -714,15 +714,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -732,13 +723,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1032,7 +1032,7 @@
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -1041,359 +1041,359 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <f t="shared" ref="A4:A16" ca="1" si="0">IFERROR(IF(D:D&amp;E:E="","",MAX(INDIRECT("a2:a"&amp;ROW()-1))+1),"")</f>
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
+      <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+      <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:H15"/>

--- a/tetris_PocList.xlsx
+++ b/tetris_PocList.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="5940" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="要件" sheetId="1" r:id="rId1"/>
+    <sheet name="class map" sheetId="2" r:id="rId2"/>
+    <sheet name="SOUND" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件!$A$3:$H$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -83,19 +85,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>自分の行を消せる</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>要件</t>
     <rPh sb="0" eb="2">
       <t>ヨウケン</t>
@@ -103,21 +92,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>壁けり※</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>操作</t>
     <rPh sb="0" eb="2">
       <t>ソウサ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>stop</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -295,16 +273,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1人対戦</t>
-    <rPh sb="0" eb="2">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイセン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1人対戦ができること</t>
     <rPh sb="0" eb="2">
       <t>ヒトリ</t>
@@ -331,61 +299,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ハイケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1)メディスンアイテムを消すと、それが保持されること
-2)それを指定したキーを押すと保持された分だけテトリスの行が消えること
-3)保持できるのは3つまでとし、それ以上は保持されないこと
-4)3つ保持した場合は4行消すことが出来ること</t>
-    <rPh sb="12" eb="13">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>デキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -492,112 +405,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>以下の動作時に効果音が出ること
-1)ブロックが固定された時
-2)1行消した時
-　2)-1:1から2行消えた時
-　2)-2:3から4行消した時
-　2)-3:5行消した時
-3)一行増えた時
-4)メディカルを使用した時</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>コウカオン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コテイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>イチギョウ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1)相手の消した行の合計の数文、ピンクブロックが表示される
-2)その分の攻撃が終わったら消える</t>
-    <rPh sb="2" eb="4">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ケ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>実装</t>
     <rPh sb="0" eb="2">
       <t>ジッソウ</t>
@@ -623,6 +430,653 @@
     <t>コードの整理がされること</t>
     <rPh sb="4" eb="6">
       <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1)メディスンアイテムを消すと、それが保持されること
+2)それを指定したキーを押すと保持された分だけテトリスの行が消えること
+3)保持できるのは4つまでとし、それ以上は保持されないこと
+4)4つ保持した場合は4行消すことが出来ること</t>
+    <rPh sb="12" eb="13">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メディスン→ハートに変更</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定のブロックを消し、それをアイテムとして使うことで自分の行を消せる</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指定されたキーボードを押下することで、画面の動きを施業することができる（stop機能）</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セギョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1人でも遊ぶことができる（1人対戦</t>
+    <rPh sb="0" eb="2">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックが壁にあたっている状態だと回転できない（壁けり※</t>
+    <rPh sb="5" eb="6">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無音だとUXが低い</t>
+    <rPh sb="0" eb="2">
+      <t>ムオン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下の動作時に効果音が出ること
+1)ブロックが固定された時
+2)行をそろえた時（※）
+3)相手から攻撃を受けた時（※）
+4)ハートを使用した時（※）
+5)ボタンをクリックした時</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>コウカオン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(※)
+行ごとに効果音を変える
+・1～2行の時
+・3行の時
+・4行の時</t>
+    <rPh sb="4" eb="5">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウカオン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一旦仮で設定（2020/01/25）</t>
+    <rPh sb="0" eb="2">
+      <t>イッタン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBで変数値を管理できるようにしたい(アイテムのマックス値など)</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラクターを作り、ユーザの選択の幅を増やす</t>
+    <rPh sb="7" eb="8">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DBで値の管理が行えこと</t>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1)相手の消した行の合計の数文、ピンクブロックが表示されること
+2)その分の攻撃が終わったら消えること</t>
+    <rPh sb="2" eb="4">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>好きなキャラクターを選択し、そのキャラクター特有の能力が使えること</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トクユウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザIDを作成できるようにしたい</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザIDを持つことができ、ユーザ同士の勝敗数やログイン回数を見ることができる</t>
+    <rPh sb="6" eb="7">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ドウシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ショウハイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オリジナルキャラクターが作れるようにしたい</t>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オリジナルアバターが作れる、それを用いてゲームをすることができる</t>
+    <rPh sb="10" eb="11">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>class map</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>calss名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>役割</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DISPLAY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面描写</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ビョウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GAME</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テトリスのゲームの処理</t>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SOUND</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解説シート</t>
+    <rPh sb="0" eb="2">
+      <t>カイセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム内のサウンド管理</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SOUND</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SOUND クラス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EFFECT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sounds.json</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>key(音を出したい箇所)："ファイルのpath"</t>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行程</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tetrisServer.js</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sounds.jsonをサーバ側で取得する。</t>
+    <rPh sb="15" eb="16">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sounds.js</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Soundクラスオブジェクトより、受け取ったjsonデータを加工していく。
+１）new Mapを生成する
+２）Mapにｊsonのkey(name)とその値をNew Audioオブジェクトにして格納する。</t>
+    <rPh sb="17" eb="18">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>play(Mapのキー)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>loop(Mapのキー)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>stop(Mapのキー)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>valueを再生する。</t>
+    <rPh sb="6" eb="8">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>valueをループ再生する。</t>
+    <rPh sb="9" eb="11">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>valueの音楽を止める。</t>
+    <rPh sb="6" eb="8">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変数名（引数）</t>
+    <rPh sb="0" eb="3">
+      <t>ヘンスウメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クラス構造</t>
+    <rPh sb="3" eb="5">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sounds.jsonをemitで受け取り、jsonデータでSoundクラスオブジェクトを生成する。</t>
+    <rPh sb="17" eb="18">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -707,7 +1161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,9 +1183,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -740,6 +1191,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,55 +1486,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="3.875" style="10" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>29</v>
+      <c r="A1" s="13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>41</v>
+      <c r="I3" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <f t="shared" ref="A4:A16" ca="1" si="0">IFERROR(IF(D:D&amp;E:E="","",MAX(INDIRECT("a2:a"&amp;ROW()-1))+1),"")</f>
+      <c r="A4" s="12">
+        <f t="shared" ref="A4:A20" ca="1" si="0">IFERROR(IF(D:D&amp;E:E="","",MAX(INDIRECT("a2:a"&amp;ROW()-1))+1),"")</f>
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1081,18 +1547,22 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="A5" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
@@ -1103,20 +1573,20 @@
         <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
@@ -1125,18 +1595,18 @@
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+    <row r="7" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
@@ -1144,65 +1614,67 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="A8" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+      <c r="A9" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="A10" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
       </c>
@@ -1210,21 +1682,21 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="A11" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>8</v>
       </c>
@@ -1232,21 +1704,23 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="A12" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
@@ -1254,21 +1728,21 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+    <row r="13" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
@@ -1276,122 +1750,170 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="A14" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="2"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+      <c r="A16" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
@@ -1401,4 +1923,253 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tetris_PocList.xlsx
+++ b/tetris_PocList.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="5940" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="5940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="要件" sheetId="1" r:id="rId1"/>
     <sheet name="class map" sheetId="2" r:id="rId2"/>
-    <sheet name="SOUND" sheetId="3" r:id="rId3"/>
+    <sheet name="Sound" sheetId="3" r:id="rId3"/>
+    <sheet name="Block" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">要件!$A$3:$H$15</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -898,10 +899,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SOUND</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>解説シート</t>
     <rPh sb="0" eb="2">
       <t>カイセツ</t>
@@ -919,10 +916,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>SOUND</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -977,10 +970,6 @@
     <rPh sb="17" eb="19">
       <t>シュトク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sounds.js</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1068,15 +1057,188 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sounds.jsonをemitで受け取り、jsonデータでSoundクラスオブジェクトを生成する。</t>
+    <t>soundClass.js</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Block クラス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blocks.json</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>key(ブロックの種類)："ファイルのpath"</t>
+    <rPh sb="9" eb="11">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sounds.jsonをonで受け取り、jsonデータでSoundクラスオブジェクトを生成する。
+その後、emitで送信する。</t>
+    <rPh sb="15" eb="16">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blocks.jsonをサーバ側で取得する。</t>
+    <rPh sb="15" eb="16">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blocks.jsonをonで受け取り、jsonデータでBlockクラスオブジェクトを生成する。
+その後、emitで送信。</t>
+    <rPh sb="15" eb="16">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blockClass.js</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Blockクラスオブジェクトより、受け取ったjsonデータを加工していく。
+１）new Mapを生成する
+２）Mapにｊsonのkey(name)、valueには変数imgにImageオブジェクトを代入。そのsrcにjasonのvalueを代入する。</t>
     <rPh sb="17" eb="18">
       <t>ウ</t>
     </rPh>
     <rPh sb="19" eb="20">
       <t>ト</t>
     </rPh>
-    <rPh sb="45" eb="47">
+    <rPh sb="30" eb="32">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
       <t>セイセイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tetris.js</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call(Mapのキー)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mapに入っているImageオブジェクトを取得する</t>
+    <rPh sb="4" eb="5">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブロックの種類をvalとして格納する</t>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>set types(val)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>get types(val)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>types(val)のgetter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム開始時、imageBlocksに配列として各ブロックを代入していく。
+imageBlocks = block.types.map((val) =&gt; block.call(val));
+.mapで各オブジェクトにして配列として代入する。</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ダイニュウ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ダイニュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1929,7 +2091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1940,12 +2104,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>64</v>
@@ -1954,7 +2118,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1986,13 +2150,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -2000,7 +2164,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2009,9 +2173,13 @@
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
@@ -2055,7 +2223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2066,18 +2236,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2085,10 +2255,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2096,21 +2266,21 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>94</v>
+      <c r="C6" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
@@ -2118,21 +2288,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2140,10 +2310,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -2151,10 +2321,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2162,10 +2332,144 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>90</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="63.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
